--- a/libertadores/datasets_liberta/resultados_fase_5.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_5.xlsx
@@ -463,8 +463,14 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3">
+        <v>62.239990234375</v>
+      </c>
       <c r="E3" t="s">
         <v>11</v>
+      </c>
+      <c r="F3">
+        <v>47.510009765625</v>
       </c>
     </row>
   </sheetData>
